--- a/options-init.xlsx
+++ b/options-init.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="17235" windowHeight="6210"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>String \| Array</t>
+  </si>
+  <si>
+    <t>[CodePen](https://codepen.io/maiCoding/pen/OajRdb)</t>
   </si>
 </sst>
 </file>
@@ -513,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +557,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -639,7 +642,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
@@ -656,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
@@ -673,7 +676,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>

--- a/options-init.xlsx
+++ b/options-init.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t>[CodePen](https://codepen.io/maiCoding/pen/OajRdb)</t>
+  </si>
+  <si>
+    <t>[CodePen](https://codepen.io/maiCoding/pen/oQeQWe)</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>[CodePen](https://codepen.io/maiCoding/pen/gQxZpJ)</t>
+  </si>
+  <si>
+    <t>[CodePen](https://codepen.io/maiCoding/pen/OajrdX)</t>
   </si>
 </sst>
 </file>
@@ -517,7 +529,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +537,7 @@
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="52" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -574,7 +586,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
         <v>46</v>
@@ -591,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
         <v>47</v>
@@ -608,7 +620,7 @@
         <v>1.6</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
         <v>48</v>
@@ -625,7 +637,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
         <v>49</v>
@@ -693,7 +705,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
         <v>50</v>

--- a/options-init.xlsx
+++ b/options-init.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="17235" windowHeight="6210"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -75,15 +75,6 @@
     <t>matches startPosition</t>
   </si>
   <si>
-    <t>startColor</t>
-  </si>
-  <si>
-    <t>halfwayColor</t>
-  </si>
-  <si>
-    <t>endColor</t>
-  </si>
-  <si>
     <t>"standard"</t>
   </si>
   <si>
@@ -105,15 +96,6 @@
     <t>Accepts "top", "bottom", "right", "left", or "middle". Determines the position the slices to animate to for the end phase.</t>
   </si>
   <si>
-    <t>Accepts a [CSS Color Value](https://www.w3schools.com/cssref/css_colors_legal.asp) Determines the color the slices will be in for the end phase.</t>
-  </si>
-  <si>
-    <t>Accepts a [CSS Color Value](https://www.w3schools.com/cssref/css_colors_legal.asp) Determines the color the slices will be in for the halfway phase.</t>
-  </si>
-  <si>
-    <t>Accepts a [CSS Color Value](https://www.w3schools.com/cssref/css_colors_legal.asp) Determines the color the slices will be in for the start phase.</t>
-  </si>
-  <si>
     <t>Example</t>
   </si>
   <si>
@@ -187,6 +169,27 @@
   </si>
   <si>
     <t>[CodePen](https://codepen.io/maiCoding/pen/OajrdX)</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>Accepts a [CSS Color Value](https://www.w3schools.com/cssref/css_colors_legal.asp) Determines the color the slices will be in throughout the animation.</t>
+  </si>
+  <si>
+    <t>sticky</t>
+  </si>
+  <si>
+    <t>zIndex</t>
+  </si>
+  <si>
+    <t>[CodePen](https://codepen.io/maiCoding/pen/vQddEz)</t>
+  </si>
+  <si>
+    <t>By default the position of the element that contains the Slive Revealer instance has `position: abosolute`. If true then container element will have `position: sticky`. Used when target has scrollable content.</t>
+  </si>
+  <si>
+    <t>Sets the `z-index` of the instance's container element.</t>
   </si>
 </sst>
 </file>
@@ -529,7 +532,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -569,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -580,16 +583,16 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -597,16 +600,16 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -614,16 +617,16 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>1.6</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -631,203 +634,203 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
         <v>52</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/options-init.xlsx
+++ b/options-init.xlsx
@@ -532,7 +532,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +603,7 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D4" t="s">
         <v>49</v>
@@ -612,7 +612,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -620,7 +620,7 @@
         <v>22</v>
       </c>
       <c r="C5">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="D5" t="s">
         <v>49</v>

--- a/options-init.xlsx
+++ b/options-init.xlsx
@@ -129,15 +129,6 @@
     <t>If true then firing an animation while an animation is already playing will queue the second animation behind the first one and fire when the first one finishes. You can only have one queued animation per instance at a time. Queuing a new one will replace the current one.</t>
   </si>
   <si>
-    <t>Accepts an Object that will pass options whenever you animate to the start phase. For a list of valid phase options refer to the [Options (Phase)](https://github.com/RealTayy/slice-revealer#options-phase) section.</t>
-  </si>
-  <si>
-    <t>Accepts an Object that will pass options whenever you animate to the halfway phase. For a list of valid phase options refer to the [Options (Phase)](https://github.com/RealTayy/slice-revealer#options-phase) section.</t>
-  </si>
-  <si>
-    <t>Accepts an Object that will pass options whenever you animate to the end phase. For a list of valid phase options refer to the [Options (Phase)](https://github.com/RealTayy/slice-revealer#options-phase) section.</t>
-  </si>
-  <si>
     <t>The number of slices.</t>
   </si>
   <si>
@@ -186,10 +177,19 @@
     <t>[CodePen](https://codepen.io/maiCoding/pen/vQddEz)</t>
   </si>
   <si>
-    <t>By default the position of the element that contains the Slive Revealer instance has `position: abosolute`. If true then container element will have `position: sticky`. Used when target has scrollable content.</t>
-  </si>
-  <si>
     <t>Sets the `z-index` of the instance's container element.</t>
+  </si>
+  <si>
+    <t>Accepts an Object that will pass options whenever you animate to the start phase. For a list of valid phase options refer to the [Options (Phase)](https://github.com/RealTayy/slice-revealer#options---phase-optional) section.</t>
+  </si>
+  <si>
+    <t>Accepts an Object that will pass options whenever you animate to the halfway phase. For a list of valid phase options refer to the [Options (Phase)](https://github.com/RealTayy/slice-revealer#options---phase-optional) section.</t>
+  </si>
+  <si>
+    <t>Accepts an Object that will pass options whenever you animate to the end phase. For a list of valid phase options refer to the [Options (Phase)](https://github.com/RealTayy/slice-revealer#options---phase-optional) section.</t>
+  </si>
+  <si>
+    <t>By default the position of the element that contains the Slice Revealer instance has `position: abosolute`. If true then container element will have `position: sticky`. Used when target has scrollable content.</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -589,10 +589,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -606,10 +606,10 @@
         <v>0.8</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -623,10 +623,10 @@
         <v>1.3</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -634,21 +634,21 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -657,10 +657,10 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -668,13 +668,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
@@ -685,13 +685,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
@@ -702,13 +702,13 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
@@ -719,16 +719,16 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -762,7 +762,7 @@
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -779,7 +779,7 @@
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -793,7 +793,7 @@
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -810,15 +810,15 @@
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -827,10 +827,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/options-init.xlsx
+++ b/options-init.xlsx
@@ -99,9 +99,6 @@
     <t>Example</t>
   </si>
   <si>
-    <t>[CodePen]()</t>
-  </si>
-  <si>
     <t>queueAnimation</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>By default the position of the element that contains the Slice Revealer instance has `position: abosolute`. If true then container element will have `position: sticky`. Used when target has scrollable content.</t>
+  </si>
+  <si>
+    <t>[CodePen](https://codepen.io/maiCoding/pen/MzLBoB)</t>
   </si>
 </sst>
 </file>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -589,10 +589,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -606,10 +606,10 @@
         <v>0.8</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -623,10 +623,10 @@
         <v>1.3</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -634,21 +634,21 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -657,10 +657,10 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -668,13 +668,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
@@ -685,13 +685,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
@@ -702,13 +702,13 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
@@ -719,106 +719,106 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -827,10 +827,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/options-init.xlsx
+++ b/options-init.xlsx
@@ -99,9 +99,6 @@
     <t>Example</t>
   </si>
   <si>
-    <t>[CodePen]()</t>
-  </si>
-  <si>
     <t>queueAnimation</t>
   </si>
   <si>
@@ -129,15 +126,6 @@
     <t>If true then firing an animation while an animation is already playing will queue the second animation behind the first one and fire when the first one finishes. You can only have one queued animation per instance at a time. Queuing a new one will replace the current one.</t>
   </si>
   <si>
-    <t>Accepts an Object that will pass options whenever you animate to the start phase. For a list of valid phase options refer to the [Options (Phase)](https://github.com/RealTayy/slice-revealer#options-phase) section.</t>
-  </si>
-  <si>
-    <t>Accepts an Object that will pass options whenever you animate to the halfway phase. For a list of valid phase options refer to the [Options (Phase)](https://github.com/RealTayy/slice-revealer#options-phase) section.</t>
-  </si>
-  <si>
-    <t>Accepts an Object that will pass options whenever you animate to the end phase. For a list of valid phase options refer to the [Options (Phase)](https://github.com/RealTayy/slice-revealer#options-phase) section.</t>
-  </si>
-  <si>
     <t>The number of slices.</t>
   </si>
   <si>
@@ -186,10 +174,22 @@
     <t>[CodePen](https://codepen.io/maiCoding/pen/vQddEz)</t>
   </si>
   <si>
-    <t>By default the position of the element that contains the Slive Revealer instance has `position: abosolute`. If true then container element will have `position: sticky`. Used when target has scrollable content.</t>
-  </si>
-  <si>
     <t>Sets the `z-index` of the instance's container element.</t>
+  </si>
+  <si>
+    <t>Accepts an Object that will pass options whenever you animate to the start phase. For a list of valid phase options refer to the [Options (Phase)](https://github.com/RealTayy/slice-revealer#options---phase-optional) section.</t>
+  </si>
+  <si>
+    <t>Accepts an Object that will pass options whenever you animate to the halfway phase. For a list of valid phase options refer to the [Options (Phase)](https://github.com/RealTayy/slice-revealer#options---phase-optional) section.</t>
+  </si>
+  <si>
+    <t>Accepts an Object that will pass options whenever you animate to the end phase. For a list of valid phase options refer to the [Options (Phase)](https://github.com/RealTayy/slice-revealer#options---phase-optional) section.</t>
+  </si>
+  <si>
+    <t>By default the position of the element that contains the Slice Revealer instance has `position: abosolute`. If true then container element will have `position: sticky`. Used when target has scrollable content.</t>
+  </si>
+  <si>
+    <t>[CodePen](https://codepen.io/maiCoding/pen/MzLBoB)</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -572,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -589,10 +589,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -606,10 +606,10 @@
         <v>0.8</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -623,10 +623,10 @@
         <v>1.3</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -634,21 +634,21 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -657,10 +657,10 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -668,13 +668,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
@@ -685,13 +685,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
@@ -702,13 +702,13 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
@@ -719,98 +719,98 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
         <v>56</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -827,10 +827,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
